--- a/조승우 JSP 서블릿 웹 백엔드 API 설계.xlsx
+++ b/조승우 JSP 서블릿 웹 백엔드 API 설계.xlsx
@@ -37,7 +37,7 @@
     <t>GET</t>
   </si>
   <si>
-    <t>/products?action=insert&amp;id=1</t>
+    <t>/products?action=insert</t>
   </si>
   <si>
     <t>insert()</t>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>POST</t>
+  </si>
+  <si>
+    <t>/products?action=list</t>
   </si>
   <si>
     <t>상품정보수정</t>
@@ -74,9 +77,6 @@
   </si>
   <si>
     <t>상품목록조회</t>
-  </si>
-  <si>
-    <t>/products?action=list</t>
   </si>
   <si>
     <t>list()</t>
@@ -494,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -513,19 +513,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
@@ -549,16 +549,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -577,19 +577,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
@@ -609,13 +609,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
@@ -656,7 +656,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
